--- a/03 Materials/ELEC5550_Team_26_Equipment_List.xlsx
+++ b/03 Materials/ELEC5550_Team_26_Equipment_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ELEC5550\03 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97DCCA-6105-4F0B-B2F2-860A0E8F4EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC77125D-9660-4739-9109-81F4113E750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F3AD5AB8-5C89-4C59-9ACF-44FA16CA0C77}"/>
   </bookViews>
@@ -912,6 +912,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,21 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1506,90 +1506,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="72">
         <v>5</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="82">
         <v>45866</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1658,7 +1658,7 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="41">
         <f>382.94/5</f>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="I9" s="46">
         <f t="shared" ref="I9:I17" si="0">H9*G9</f>
-        <v>382.93999999999994</v>
+        <v>306.35199999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1761,7 @@
       <c r="C13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="53" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -1843,7 +1843,7 @@
       <c r="C16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="53" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="28"/>
@@ -1867,7 +1867,7 @@
       <c r="C17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="53" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="28" t="s">
@@ -1898,7 +1898,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44">
         <f>SUM(I8:I17)</f>
-        <v>473.25999999999993</v>
+        <v>396.67199999999997</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1921,46 +1921,46 @@
       <c r="A21" s="19">
         <v>1</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>2</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>3</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
@@ -2008,6 +2008,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1cb95d69-7119-4c9b-bb73-a6a4dbb0cdde">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C5AF67BCE9D414C96FEF7B5475DCE1F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="82a8918fd206f2209b076168b7df9813">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cb95d69-7119-4c9b-bb73-a6a4dbb0cdde" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb4b2b015d39080346c299cb1b14d83e" ns2:_="">
     <xsd:import namespace="1cb95d69-7119-4c9b-bb73-a6a4dbb0cdde"/>
@@ -2179,39 +2198,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1cb95d69-7119-4c9b-bb73-a6a4dbb0cdde">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3954055D-5B14-4F96-9A39-868319EF8262}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDC691D-27B4-47D6-8A33-FFB876BFC2EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1cb95d69-7119-4c9b-bb73-a6a4dbb0cdde"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2233,9 +2223,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDC691D-27B4-47D6-8A33-FFB876BFC2EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3954055D-5B14-4F96-9A39-868319EF8262}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1cb95d69-7119-4c9b-bb73-a6a4dbb0cdde"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>